--- a/Shiny.Income.present.xlsx
+++ b/Shiny.Income.present.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Tạo ra sản phẩm hoàn chỉnh</t>
   </si>
@@ -209,6 +209,129 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Samsung AV</t>
+  </si>
+  <si>
+    <t>Định phí</t>
+  </si>
+  <si>
+    <t>Biến phí</t>
+  </si>
+  <si>
+    <t>Cá nhân</t>
+  </si>
+  <si>
+    <t>Công ty</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Tiếp khách</t>
+  </si>
+  <si>
+    <t>Thu nhập</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>Điện nước</t>
+  </si>
+  <si>
+    <t>- thuế</t>
+  </si>
+  <si>
+    <t>- chi phí</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>= lợi nhuận</t>
+  </si>
+  <si>
+    <t>=Lợi nhuận</t>
+  </si>
+  <si>
+    <t>chia cho ban BT</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>BHXH</t>
+  </si>
+  <si>
+    <t>BHYT</t>
+  </si>
+  <si>
+    <t>Thuế</t>
+  </si>
+  <si>
+    <t>Chốt mở công ty?</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Nhờ công ty khác</t>
+  </si>
+  <si>
+    <t>Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Thời gian mỗi ngày cho dự án</t>
+  </si>
+  <si>
+    <t>Ban Quản trị</t>
+  </si>
+  <si>
+    <t>Định giá sản phẩm</t>
+  </si>
+  <si>
+    <t>? Meeting frequence</t>
+  </si>
+  <si>
+    <t>CO-FOUNDER</t>
+  </si>
+  <si>
+    <t>BQT (3 người)</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huy </t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Anh Thien</t>
+  </si>
+  <si>
+    <t>20tr</t>
+  </si>
+  <si>
+    <t>10tr + ..</t>
+  </si>
+  <si>
+    <t>20tr.</t>
+  </si>
+  <si>
+    <t>Thời gian mỗi ngày cho dự án?</t>
   </si>
 </sst>
 </file>
@@ -218,9 +341,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -489,7 +612,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -549,6 +672,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,29 +710,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -922,24 +1049,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="33" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="37"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
@@ -1336,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,45 +1477,45 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1396,51 +1523,51 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="37">
         <f>-$F$21</f>
         <v>-600000</v>
       </c>
-      <c r="E8" s="42">
-        <f t="shared" ref="E8:O8" si="0">-$F$21</f>
+      <c r="E8" s="37">
+        <f t="shared" ref="E8:G8" si="0">-$F$21</f>
         <v>-600000</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>-600000</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>-600000</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <f>-$F$22</f>
         <v>-1080000</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="37">
         <f t="shared" ref="I8:O8" si="1">-$F$22</f>
         <v>-1080000</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="37">
         <f t="shared" si="1"/>
         <v>-1080000</v>
       </c>
@@ -1449,53 +1576,53 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="39">
         <f>-D14*$F$23</f>
         <v>0</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="39">
         <f t="shared" ref="E9:O9" si="2">-E14*$F$23</f>
         <v>0</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="39">
         <f t="shared" si="2"/>
         <v>-2360000</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="39">
         <f t="shared" si="2"/>
         <v>-2960000</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="39">
         <f t="shared" si="2"/>
         <v>-2960000</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="39">
         <f t="shared" si="2"/>
         <v>-2960000</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="39">
         <f t="shared" si="2"/>
         <v>-3160000</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="39">
         <f t="shared" si="2"/>
         <v>-3160000</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="39">
         <f t="shared" si="2"/>
-        <v>-3160000</v>
-      </c>
-      <c r="N9" s="44">
+        <v>-4400000</v>
+      </c>
+      <c r="N9" s="39">
         <f t="shared" si="2"/>
-        <v>-3160000</v>
-      </c>
-      <c r="O9" s="44">
+        <v>-4400000</v>
+      </c>
+      <c r="O9" s="39">
         <f t="shared" si="2"/>
-        <v>-3160000</v>
+        <v>-4400000</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -1503,164 +1630,164 @@
         <f>C24</f>
         <v>Developer</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="37">
         <f>-$F$24</f>
         <v>-30000000</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="43">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38">
         <f>SUM(G15:G17)</f>
         <v>5900000</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="38">
         <f t="shared" ref="H14:O14" si="3">SUM(H15:H17)</f>
         <v>7400000</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="38">
         <f t="shared" si="3"/>
         <v>7400000</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="38">
         <f t="shared" si="3"/>
         <v>7400000</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="38">
         <f t="shared" si="3"/>
         <v>7900000</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="38">
         <f t="shared" si="3"/>
         <v>7900000</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="38">
         <f t="shared" si="3"/>
-        <v>7900000</v>
-      </c>
-      <c r="N14" s="43">
+        <v>11000000</v>
+      </c>
+      <c r="N14" s="38">
         <f t="shared" si="3"/>
-        <v>7900000</v>
-      </c>
-      <c r="O14" s="43">
+        <v>11000000</v>
+      </c>
+      <c r="O14" s="38">
         <f t="shared" si="3"/>
-        <v>7900000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="40">
-        <f>$M$21</f>
+      <c r="G15" s="35">
+        <f t="shared" ref="G15:O15" si="4">$M$21</f>
         <v>5900000</v>
       </c>
-      <c r="H15" s="40">
-        <f>$M$21</f>
+      <c r="H15" s="35">
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
-      <c r="I15" s="40">
-        <f>$M$21</f>
+      <c r="I15" s="35">
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
-      <c r="J15" s="40">
-        <f>$M$21</f>
+      <c r="J15" s="35">
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
-      <c r="K15" s="40">
-        <f>$M$21</f>
+      <c r="K15" s="35">
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
-      <c r="L15" s="40">
-        <f>$M$21</f>
+      <c r="L15" s="35">
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
-      <c r="M15" s="40">
-        <f>$M$21</f>
-        <v>5900000</v>
-      </c>
-      <c r="N15" s="40">
-        <f>$M$21</f>
-        <v>5900000</v>
-      </c>
-      <c r="O15" s="40">
-        <f>$M$21</f>
-        <v>5900000</v>
+      <c r="M15" s="35">
+        <v>9000000</v>
+      </c>
+      <c r="N15" s="35">
+        <v>9000000</v>
+      </c>
+      <c r="O15" s="35">
+        <v>9000000</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="40">
         <v>1500000</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="40">
         <v>1500000</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="40">
         <v>1500000</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="40">
         <v>2000000</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="40">
         <v>2000000</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="40">
         <v>2000000</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="40">
         <v>2000000</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="40">
         <v>2000000</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1674,7 +1801,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="35">
         <v>600000</v>
       </c>
       <c r="I21" t="s">
@@ -1686,10 +1813,10 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="33">
         <v>5900000</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="33">
         <f>PRODUCT(K21:L21)</f>
         <v>5900000</v>
       </c>
@@ -1704,7 +1831,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="35">
         <v>1080000</v>
       </c>
     </row>
@@ -1718,7 +1845,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="34">
         <v>0.4</v>
       </c>
     </row>
@@ -1732,22 +1859,22 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="35">
         <v>30000000</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="41" t="s">
+      <c r="M24" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1755,36 +1882,36 @@
       <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -1796,10 +1923,10 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="33">
         <v>2300000</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="33">
         <f>PRODUCT(K30:L30)</f>
         <v>2300000</v>
       </c>
@@ -1814,10 +1941,10 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="33">
         <v>1000000</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="33">
         <f>PRODUCT(K31:L31)</f>
         <v>1000000</v>
       </c>
@@ -1830,32 +1957,205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B8"/>
+  <dimension ref="B5:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Shiny.Income.present.xlsx
+++ b/Shiny.Income.present.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -695,6 +695,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,10 +714,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1049,24 +1049,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="46" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="50"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" activeCellId="1" sqref="E15:F17 G17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,39 +1590,39 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" si="2"/>
-        <v>-2360000</v>
+        <v>-3160000</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="2"/>
-        <v>-2960000</v>
+        <v>-3760000</v>
       </c>
       <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>-2960000</v>
+        <v>-3760000</v>
       </c>
       <c r="J9" s="39">
         <f t="shared" si="2"/>
-        <v>-2960000</v>
+        <v>-3760000</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="2"/>
-        <v>-3160000</v>
+        <v>-3960000</v>
       </c>
       <c r="L9" s="39">
         <f t="shared" si="2"/>
-        <v>-3160000</v>
+        <v>-3960000</v>
       </c>
       <c r="M9" s="39">
         <f t="shared" si="2"/>
-        <v>-4400000</v>
+        <v>-3960000</v>
       </c>
       <c r="N9" s="39">
         <f t="shared" si="2"/>
-        <v>-4400000</v>
+        <v>-3960000</v>
       </c>
       <c r="O9" s="39">
         <f t="shared" si="2"/>
-        <v>-4400000</v>
+        <v>-3960000</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -1646,47 +1646,55 @@
       <c r="F14" s="36"/>
       <c r="G14" s="38">
         <f>SUM(G15:G17)</f>
-        <v>5900000</v>
+        <v>7900000</v>
       </c>
       <c r="H14" s="38">
         <f t="shared" ref="H14:O14" si="3">SUM(H15:H17)</f>
-        <v>7400000</v>
+        <v>9400000</v>
       </c>
       <c r="I14" s="38">
         <f t="shared" si="3"/>
-        <v>7400000</v>
+        <v>9400000</v>
       </c>
       <c r="J14" s="38">
         <f t="shared" si="3"/>
-        <v>7400000</v>
+        <v>9400000</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="3"/>
-        <v>7900000</v>
+        <v>9900000</v>
       </c>
       <c r="L14" s="38">
         <f t="shared" si="3"/>
-        <v>7900000</v>
+        <v>9900000</v>
       </c>
       <c r="M14" s="38">
         <f t="shared" si="3"/>
-        <v>11000000</v>
+        <v>9900000</v>
       </c>
       <c r="N14" s="38">
         <f t="shared" si="3"/>
-        <v>11000000</v>
+        <v>9900000</v>
       </c>
       <c r="O14" s="38">
         <f t="shared" si="3"/>
-        <v>11000000</v>
+        <v>9900000</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
+      <c r="E15" s="35">
+        <f t="shared" ref="E14:O15" si="4">$M$21</f>
+        <v>5900000</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="4"/>
+        <v>5900000</v>
+      </c>
       <c r="G15" s="35">
-        <f t="shared" ref="G15:O15" si="4">$M$21</f>
+        <f t="shared" si="4"/>
         <v>5900000</v>
       </c>
       <c r="H15" s="35">
@@ -1710,13 +1718,16 @@
         <v>5900000</v>
       </c>
       <c r="M15" s="35">
-        <v>9000000</v>
+        <f t="shared" si="4"/>
+        <v>5900000</v>
       </c>
       <c r="N15" s="35">
-        <v>9000000</v>
+        <f t="shared" si="4"/>
+        <v>5900000</v>
       </c>
       <c r="O15" s="35">
-        <v>9000000</v>
+        <f t="shared" si="4"/>
+        <v>5900000</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
@@ -1752,15 +1763,39 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
+      <c r="E17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="F17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="G17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="H17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="I17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="J17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="K17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="L17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="M17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="N17" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="O17" s="33">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20" s="36" t="s">
@@ -1959,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,10 +2056,10 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2032,10 +2067,10 @@
       <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="47" t="s">
         <v>72</v>
       </c>
       <c r="K17" t="s">
@@ -2046,10 +2081,10 @@
       <c r="C18" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="46" t="s">
         <v>68</v>
       </c>
     </row>
